--- a/Registeration.xlsx
+++ b/Registeration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walaanoufal/Downloads/ITworxTask2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A5874-F2E6-184B-A120-FD872683D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2BFC1C-5FD1-D14B-B4E3-FCC53A117D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16240" xr2:uid="{8C85DCD7-D4AB-BC49-ABFA-B7F138D051E4}"/>
   </bookViews>
